--- a/bootcamp整理.xlsx
+++ b/bootcamp整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s48118\Documents\PD\frontend_udemy\webDeveloper Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D1B87A-32C0-4A07-93FD-DE0BAF3D0A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B2D55-1EE4-423E-A795-7C34AA69CCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{9EF12CDE-FFDB-4578-8221-1BA8EFB743BD}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" xr2:uid="{9EF12CDE-FFDB-4578-8221-1BA8EFB743BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E391EA6F-5EDA-4E3A-A44C-A0A29CA337DC}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>

--- a/bootcamp整理.xlsx
+++ b/bootcamp整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s48118\Documents\PD\frontend_udemy\webDeveloper Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B2D55-1EE4-423E-A795-7C34AA69CCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CA5535-4B5D-4D24-AE71-EFE9F2300639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" xr2:uid="{9EF12CDE-FFDB-4578-8221-1BA8EFB743BD}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="13896" xr2:uid="{9EF12CDE-FFDB-4578-8221-1BA8EFB743BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E391EA6F-5EDA-4E3A-A44C-A0A29CA337DC}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
